--- a/Scenario setup.xlsx
+++ b/Scenario setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F49BEA7-EBC9-AC41-A75C-9B3CA230A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4F623-7E55-4E4E-B60D-29B00316CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{19F7A473-1970-354B-A27C-175479056876}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="294">
   <si>
     <t>Parameter category</t>
   </si>
@@ -69,9 +69,6 @@
     <t>volume_growth_rate</t>
   </si>
   <si>
-    <t>Future average growth rate of the underlying volume drivers, goes from simulation start (or shock year) to simulation end</t>
-  </si>
-  <si>
     <t>Commodity-specific</t>
   </si>
   <si>
@@ -825,9 +822,6 @@
     <t>collection_rate_pct_change_inc</t>
   </si>
   <si>
-    <t>direct_melt_duration</t>
-  </si>
-  <si>
     <t>scrap_demand_duration</t>
   </si>
   <si>
@@ -898,6 +892,33 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Cumu OT</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>grade decline</t>
+  </si>
+  <si>
+    <t>grade change rate</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>cost improvement rate</t>
+  </si>
+  <si>
+    <t>cost improve</t>
+  </si>
+  <si>
+    <t>scrap_demand_pct_change_inc</t>
+  </si>
+  <si>
+    <t>Future average growth rate of the underlying volume drivers, goes from simulation start (or shock year) to simulation end, used average from our initial copper model</t>
   </si>
 </sst>
 </file>
@@ -1323,17 +1344,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A1D66-ACB3-5F43-8146-4761D363CB09}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1354,19 +1376,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1377,441 +1399,441 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="C4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" t="s">
-        <v>136</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>140</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
         <v>146</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
         <v>152</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>153</v>
       </c>
-      <c r="D13" t="s">
-        <v>154</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
         <v>158</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>159</v>
       </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
         <v>172</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
         <v>178</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>179</v>
       </c>
-      <c r="D21" t="s">
-        <v>180</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" t="s">
         <v>182</v>
       </c>
-      <c r="D22" t="s">
-        <v>183</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
         <v>188</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>189</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>200</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>201</v>
-      </c>
-      <c r="D27" t="s">
-        <v>202</v>
       </c>
       <c r="E27" s="4">
         <v>5</v>
@@ -1819,16 +1841,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="E28" s="13">
         <v>3</v>
@@ -1836,33 +1858,33 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" t="s">
         <v>206</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>207</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" t="s">
         <v>210</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>211</v>
-      </c>
-      <c r="D30" t="s">
-        <v>212</v>
       </c>
       <c r="E30" s="4">
         <v>0.3</v>
@@ -1870,16 +1892,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
         <v>213</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>214</v>
-      </c>
-      <c r="D31" t="s">
-        <v>215</v>
       </c>
       <c r="E31" s="4">
         <v>0.5</v>
@@ -1887,16 +1909,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
         <v>216</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>217</v>
-      </c>
-      <c r="D32" t="s">
-        <v>218</v>
       </c>
       <c r="E32" s="4">
         <v>0.2</v>
@@ -1904,16 +1926,16 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" t="s">
         <v>219</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>220</v>
-      </c>
-      <c r="D33" t="s">
-        <v>221</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1921,16 +1943,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" t="s">
         <v>222</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>223</v>
-      </c>
-      <c r="D34" t="s">
-        <v>224</v>
       </c>
       <c r="E34" s="4">
         <v>0.4</v>
@@ -1942,21 +1964,21 @@
         <v>0.6</v>
       </c>
       <c r="K34">
-        <v>2019</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
         <v>222</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>223</v>
-      </c>
-      <c r="D35" t="s">
-        <v>224</v>
       </c>
       <c r="E35" s="4">
         <v>0.4</v>
@@ -1968,21 +1990,21 @@
         <v>0.7</v>
       </c>
       <c r="K35">
-        <v>2025</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
         <v>225</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>226</v>
-      </c>
-      <c r="D36" t="s">
-        <v>227</v>
       </c>
       <c r="E36" s="4">
         <v>0.4</v>
@@ -1990,16 +2012,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" t="s">
         <v>228</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>229</v>
-      </c>
-      <c r="D37" t="s">
-        <v>230</v>
       </c>
       <c r="E37" s="4">
         <v>3</v>
@@ -2007,19 +2029,22 @@
       <c r="F37">
         <v>2</v>
       </c>
+      <c r="K37">
+        <v>2019</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" t="s">
         <v>228</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>229</v>
-      </c>
-      <c r="D38" t="s">
-        <v>230</v>
       </c>
       <c r="E38" s="4">
         <v>3</v>
@@ -2027,19 +2052,22 @@
       <c r="F38">
         <v>3</v>
       </c>
+      <c r="K38">
+        <v>2025</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" t="s">
         <v>231</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>232</v>
-      </c>
-      <c r="D39" t="s">
-        <v>233</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2047,16 +2075,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s">
         <v>234</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>235</v>
-      </c>
-      <c r="D40" t="s">
-        <v>236</v>
       </c>
       <c r="E40" s="4">
         <v>10</v>
@@ -2070,16 +2098,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
         <v>237</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>238</v>
-      </c>
-      <c r="D41" t="s">
-        <v>239</v>
       </c>
       <c r="E41" s="4">
         <v>10</v>
@@ -2087,16 +2115,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" t="s">
         <v>240</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>241</v>
-      </c>
-      <c r="D42" t="s">
-        <v>242</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
@@ -2104,16 +2132,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
         <v>247</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>248</v>
-      </c>
-      <c r="D43" t="s">
-        <v>249</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -2121,16 +2149,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
         <v>250</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>251</v>
-      </c>
-      <c r="D44" t="s">
-        <v>252</v>
       </c>
       <c r="E44" s="4">
         <v>20220208</v>
@@ -2138,16 +2166,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" t="s">
         <v>253</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>254</v>
-      </c>
-      <c r="D45" t="s">
-        <v>255</v>
       </c>
       <c r="E45" s="4">
         <v>0.95</v>
@@ -2155,16 +2183,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
         <v>243</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>244</v>
-      </c>
-      <c r="D46" t="s">
-        <v>245</v>
       </c>
       <c r="E46" s="4" t="b">
         <v>1</v>
@@ -2172,16 +2200,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E47" s="4" t="b">
         <v>1</v>
@@ -2189,33 +2217,39 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" t="s">
         <v>258</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" t="s">
-        <v>259</v>
-      </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2018</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -2229,13 +2263,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2249,19 +2283,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
         <v>261</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>2018</v>
@@ -2269,27 +2303,33 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
         <v>262</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2018</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -2297,33 +2337,45 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2.546855E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.05</v>
+      </c>
+      <c r="J54">
+        <v>0.05</v>
+      </c>
+      <c r="K54">
+        <v>2030</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2331,16 +2383,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2348,16 +2400,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
         <v>17</v>
       </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2365,16 +2417,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -2382,16 +2434,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2399,33 +2451,33 @@
         <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
         <v>26</v>
       </c>
+      <c r="C60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>27</v>
+      <c r="B61" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2433,16 +2485,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2450,16 +2502,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2467,16 +2519,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,33 +2536,33 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>42</v>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2518,16 +2570,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" t="s">
         <v>47</v>
       </c>
+      <c r="C67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="E67" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,16 +2587,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2552,16 +2604,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,16 +2621,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" t="s">
         <v>56</v>
       </c>
+      <c r="C70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2586,16 +2638,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
       <c r="E71" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2603,16 +2655,16 @@
         <v>7</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
         <v>61</v>
       </c>
-      <c r="D72" t="s">
-        <v>47</v>
+      <c r="C72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2620,16 +2672,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>50</v>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2637,16 +2689,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,33 +2706,33 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" t="s">
         <v>67</v>
       </c>
-      <c r="D75" t="s">
-        <v>56</v>
+      <c r="C75" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>68</v>
+      <c r="B76" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2688,16 +2740,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2705,16 +2757,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2722,16 +2774,16 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2739,50 +2791,50 @@
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>82</v>
+      <c r="B81" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
       <c r="E81" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="B82" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="C82" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2790,16 +2842,16 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2807,16 +2859,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2824,16 +2876,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2841,16 +2893,16 @@
         <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2858,16 +2910,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" t="s">
         <v>99</v>
       </c>
+      <c r="C87" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="D87" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2875,16 +2927,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,16 +2944,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,16 +2961,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>109</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2926,16 +2978,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,37 +2995,21 @@
         <v>7</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
       <c r="E92" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2992,15 +3028,15 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" t="s">
         <v>256</v>
-      </c>
-      <c r="N1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3018,7 +3054,7 @@
     </row>
     <row r="3" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3036,7 +3072,7 @@
     </row>
     <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -3054,7 +3090,7 @@
     </row>
     <row r="5" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3072,7 +3108,7 @@
     </row>
     <row r="6" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3090,7 +3126,7 @@
     </row>
     <row r="7" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3337,250 +3373,1008 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09030433-F832-0A46-804D-B81B9F5EA088}">
-  <dimension ref="A1:A280"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.53790000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.41372999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.6834099999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.2305200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.62451999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.38640999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.25834000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.05528</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1995</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f>SUM($E$9:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>(F9/$F$9)^(G9)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.94732000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1996</v>
+      </c>
+      <c r="E10">
+        <v>107</v>
+      </c>
+      <c r="F10">
+        <f>SUM($E$9:E10)</f>
+        <v>207</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H12" si="0">(F10/$F$9)^(G10)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>L9*(1+K10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.78073000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1997</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <f>SUM($E$9:E11)</f>
+        <v>297</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L37" si="1">L10*(1+K11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.06623</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>1998</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <f>SUM($E$9:E12)</f>
+        <v>393</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.99570999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1999</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <f>SUM($E$9:E13)</f>
+        <v>488</v>
+      </c>
+      <c r="G13">
+        <v>-0.2</v>
+      </c>
+      <c r="H13">
+        <f>(F13/$F$12)^(G13)</f>
+        <v>0.95762295006068165</v>
+      </c>
+      <c r="I13">
+        <f>(F13/$F$12)^(G13)</f>
+        <v>0.95762295006068165</v>
+      </c>
+      <c r="K13">
+        <v>-0.02</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.07142</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>109</v>
+      </c>
+      <c r="F14">
+        <f>SUM($E$9:E14)</f>
+        <v>597</v>
+      </c>
+      <c r="G14">
+        <v>-0.2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="2">(F14/$F$12)^(G14)</f>
+        <v>0.91977932641353455</v>
+      </c>
+      <c r="I14">
+        <f>(F14/F13)^(G14)+I13-1</f>
+        <v>0.91810465776751027</v>
+      </c>
+      <c r="J14">
+        <f>I13*(F14/F13)^G14</f>
+        <v>0.91977932641353455</v>
+      </c>
+      <c r="K14">
+        <v>-0.02</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.96039999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.66144000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2001</v>
+      </c>
+      <c r="E15">
+        <v>101</v>
+      </c>
+      <c r="F15">
+        <f>SUM($E$9:E15)</f>
+        <v>698</v>
+      </c>
+      <c r="G15">
+        <v>-0.2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.89147142208859143</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I20" si="3">(F15/F14)^(G15)-1+I14</f>
+        <v>0.88732781433124475</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J20" si="4">I14*(F15/F14)^G15</f>
+        <v>0.88984829445729352</v>
+      </c>
+      <c r="K15">
+        <v>-0.02</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.94119199999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.26765</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2002</v>
+      </c>
+      <c r="E16">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <f>SUM($E$9:E16)</f>
+        <v>806</v>
+      </c>
+      <c r="G16">
+        <v>-0.2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.86618668147541045</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0.85896488537280158</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.86216059857051697</v>
+      </c>
+      <c r="K16">
+        <v>-0.02</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.92236815999999988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.58709999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2003</v>
+      </c>
+      <c r="E17">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <f>SUM($E$9:E17)</f>
+        <v>898</v>
+      </c>
+      <c r="G17">
+        <v>-0.2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.84766303098257512</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0.83757959870309284</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.84059567505989075</v>
+      </c>
+      <c r="K17">
+        <v>-0.02</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.90392079679999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.44207000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2004</v>
+      </c>
+      <c r="E18">
+        <v>109</v>
+      </c>
+      <c r="F18">
+        <f>SUM($E$9:E18)</f>
+        <v>1007</v>
+      </c>
+      <c r="G18">
+        <v>-0.4</v>
+      </c>
+      <c r="H18">
+        <f>(F18/$F$17)^(G18)</f>
+        <v>0.95520974937234715</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.79278934807543999</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.8000641985565724</v>
+      </c>
+      <c r="K18">
+        <v>-0.04</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.86776396492799979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.36009999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2005</v>
+      </c>
+      <c r="E19">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <f>SUM($E$9:E19)</f>
+        <v>1105</v>
+      </c>
+      <c r="G19">
+        <v>-0.4</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="5">(F19/$F$17)^(G19)</f>
+        <v>0.92037671653171138</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.75632297735055587</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.76387919780178182</v>
+      </c>
+      <c r="K19">
+        <v>-0.04</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.83305340633087976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.51387000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>2006</v>
+      </c>
+      <c r="E20">
+        <v>105</v>
+      </c>
+      <c r="F20">
+        <f>SUM($E$9:E20)</f>
+        <v>1210</v>
+      </c>
+      <c r="G20">
+        <v>-0.4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0.88755727179429478</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.72066426918473947</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.72935347702211106</v>
+      </c>
+      <c r="K20">
+        <v>-0.04</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.79973127007764455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.12529999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>2007</v>
+      </c>
+      <c r="E21">
+        <v>103</v>
+      </c>
+      <c r="F21">
+        <f>SUM($E$9:E21)</f>
+        <v>1313</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H37" si="6">(F21/$F$9)^(G21)-1</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-0.04</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.76774201927453878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.97616999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2008</v>
+      </c>
+      <c r="E22">
+        <v>108</v>
+      </c>
+      <c r="F22">
+        <f>SUM($E$9:E22)</f>
+        <v>1421</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.04</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.73703233850355721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.2836700000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>2009</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <f>SUM($E$9:E23)</f>
+        <v>1511</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.04</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.70755104496341492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.5204</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>2010</v>
+      </c>
+      <c r="E24">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <f>SUM($E$9:E24)</f>
+        <v>1614</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-0.04</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.67924900316487835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.1180600000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>2011</v>
+      </c>
+      <c r="E25">
+        <v>95</v>
+      </c>
+      <c r="F25">
+        <f>SUM($E$9:E25)</f>
+        <v>1709</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-0.04</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.65207904303828323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.50639999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>2012</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <f>SUM($E$9:E26)</f>
+        <v>1799</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>-0.04</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.62599588131675188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.3424100000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>2013</v>
+      </c>
+      <c r="E27">
+        <v>97</v>
+      </c>
+      <c r="F27">
+        <f>SUM($E$9:E27)</f>
+        <v>1896</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-0.04</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.60095604606408182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.52085999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>2014</v>
+      </c>
+      <c r="E28">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <f>SUM($E$9:E28)</f>
+        <v>1988</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-0.04</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.5769178042215185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.34985</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>2015</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <f>SUM($E$9:E29)</f>
+        <v>2088</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-0.04</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.55384109205265775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.19125</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30">
+        <v>109</v>
+      </c>
+      <c r="F30">
+        <f>SUM($E$9:E30)</f>
+        <v>2197</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-0.04</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.53168744837055137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.78320999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>2017</v>
+      </c>
+      <c r="E31">
+        <v>109</v>
+      </c>
+      <c r="F31">
+        <f>SUM($E$9:E31)</f>
+        <v>2306</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-0.04</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.5104199504357293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.62265000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32">
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f>SUM($E$9:E32)</f>
+        <v>2404</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0.04</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.49000315241830011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.40357999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33">
+        <v>107</v>
+      </c>
+      <c r="F33">
+        <f>SUM($E$9:E33)</f>
+        <v>2511</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-0.04</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.47040302632156811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.0206599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <f>SUM($E$9:E34)</f>
+        <v>2611</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-0.04</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.45158690526870537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1.2731399999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>2021</v>
+      </c>
+      <c r="E35">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <f>SUM($E$9:E35)</f>
+        <v>2703</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-0.04</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.43352342905795715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.36610999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>2022</v>
+      </c>
+      <c r="E36">
+        <v>103</v>
+      </c>
+      <c r="F36">
+        <f>SUM($E$9:E36)</f>
+        <v>2806</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.04</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0.41618249189563883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.20584</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>2023</v>
+      </c>
+      <c r="E37">
+        <v>93</v>
+      </c>
+      <c r="F37">
+        <f>SUM($E$9:E37)</f>
+        <v>2899</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-0.04</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0.39953519221981326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2.15883</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.98952</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.36013000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.50080000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.88305</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2.8178100000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.0106999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.8152200000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.24468999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1.48139</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.43298999999999999</v>
       </c>

--- a/Scenario setup.xlsx
+++ b/Scenario setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4F623-7E55-4E4E-B60D-29B00316CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB41A2-1C76-CD45-824A-3DD389493AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{19F7A473-1970-354B-A27C-175479056876}"/>
   </bookViews>
@@ -1348,7 +1348,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Scenario setup.xlsx
+++ b/Scenario setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C8CFB7-9D76-664A-8FE5-AC98EFFDB9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14208FD8-D81D-2648-B735-D493DB1C55D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{19F7A473-1970-354B-A27C-175479056876}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="307">
   <si>
     <t>Parameter category</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>Basic operation:</t>
+  </si>
+  <si>
+    <t>Run the model using these values by calling the Many.run_future_scenarios function with the scenario_sheet_file_path variable as a string pointing to this file.</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1078,29 +1081,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1142,6 +1130,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1156,14 +1162,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}" name="Table1" displayName="Table1" ref="A1:M99" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}" name="Table1" displayName="Table1" ref="A1:M99" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:M99" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C4332FCF-8E4C-4F49-8EFC-804C6E3A59B2}" name="Parameter category"/>
-    <tableColumn id="2" xr3:uid="{A55A75DB-88A1-1245-BF1A-68A78F78C819}" name="Parameter name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A55A75DB-88A1-1245-BF1A-68A78F78C819}" name="Parameter name" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{5A41921B-736C-6B44-9ECB-CB018A2EAD98}" name="Variable name"/>
-    <tableColumn id="4" xr3:uid="{AC20CA22-09A0-874C-8AAB-D90343AC4C41}" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{BC697E1E-B29C-C449-B77E-41BE3FCCCC5F}" name="Tuning range or preset value" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AC20CA22-09A0-874C-8AAB-D90343AC4C41}" name="Description" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BC697E1E-B29C-C449-B77E-41BE3FCCCC5F}" name="Tuning range or preset value" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{5E98ED95-4E7B-3B45-A47B-AF1FEE1A9A80}" name="Scenario 1"/>
     <tableColumn id="7" xr3:uid="{D0B2B3FA-F3D8-C746-B783-084B2C487DBB}" name="Scenario 2"/>
     <tableColumn id="8" xr3:uid="{BB62F53F-FC7E-0241-8EFE-9D0D4B695FC4}" name="Scenario 3"/>
@@ -3197,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35743A-9BCD-4440-A2B9-C15CACDD5C34}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3216,27 +3222,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+    <row r="2" spans="1:14" ht="44" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -3252,9 +3245,9 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -3270,9 +3263,9 @@
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -3290,7 +3283,7 @@
     </row>
     <row r="6" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -3308,7 +3301,7 @@
     </row>
     <row r="7" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3324,9 +3317,9 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="110" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="44" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3342,8 +3335,10 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:14" ht="110" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3358,10 +3353,8 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>299</v>
-      </c>
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -3376,9 +3369,9 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" ht="132" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>298</v>
+    <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -3394,9 +3387,9 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" ht="88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="132" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -3412,9 +3405,9 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" ht="110" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="88" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -3430,9 +3423,9 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" ht="132" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="110" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3448,8 +3441,10 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -3464,10 +3459,8 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>302</v>
-      </c>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -3482,9 +3475,9 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" ht="66" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>304</v>
+    <row r="17" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3500,8 +3493,10 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:14" ht="66" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -3628,6 +3623,22 @@
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
     </row>
+    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scenario setup.xlsx
+++ b/Scenario setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14208FD8-D81D-2648-B735-D493DB1C55D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDFD41C-6B17-3440-B56F-31FBB7D784CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{19F7A473-1970-354B-A27C-175479056876}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{19F7A473-1970-354B-A27C-175479056876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="311">
   <si>
     <t>Parameter category</t>
   </si>
@@ -929,21 +929,12 @@
     <t>load_mine_file</t>
   </si>
   <si>
-    <t>data/fake_mine_data.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can feed in your own initial mine set by setting the "generate_mines" hyperparameter to False and the "load_mine_file" hyperparameter to the string corresponding with the file path of your initial mine set. Make sure to set the scenario year to the first year of the simulation, typically 2001. Rows correspond to individual mines, columns to the parameters listed below. The model does not currently support any empty data for an individual mine, so assume something or leave that column out. There is a general order to the way interdependent variables are calculated, so check the corresponding functions (generate_production_region, update_loaded_production, generate_grade_and_masses, generate_costs_from_regression, generate_total_cash_margin, assign_mine_types, generate_oges, generate_annual_costs) to verify order. </t>
   </si>
   <si>
     <t>Using your own operating mine pool:</t>
   </si>
   <si>
-    <t>data/fake_mine_data_incentive.xlsx</t>
-  </si>
-  <si>
-    <t>data/fake_mine_data2.xlsx</t>
-  </si>
-  <si>
     <t>Using a separate incentive mine pool:</t>
   </si>
   <si>
@@ -957,13 +948,34 @@
   </si>
   <si>
     <t>Run the model using these values by calling the Many.run_future_scenarios function with the scenario_sheet_file_path variable as a string pointing to this file.</t>
+  </si>
+  <si>
+    <t>Number of years for mine initialization</t>
+  </si>
+  <si>
+    <t>External mine data file name</t>
+  </si>
+  <si>
+    <t>Use generated mines</t>
+  </si>
+  <si>
+    <t>Number of years to run the mine simulation for initialization - ensures that any rapid changes associated with the simulation start are worked out, with opening used to force mine production to match historical for several years before the full simulation starts</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>If you would like to use real mine data rather than using statistically generated data, provide the file path to that file here. For more information see the Notes tab of this spreadsheet.</t>
+  </si>
+  <si>
+    <t>If you would like to use real mine data rather than using statistically generated data, set this value to FALSE. For more information see the Notes tab of this spreadsheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -975,21 +987,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1011,21 +1008,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1033,119 +1024,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -1162,13 +1071,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}" name="Table1" displayName="Table1" ref="A1:M99" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:M99" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0">
+  <autoFilter ref="A1:M95" xr:uid="{3BBC0018-B41E-174D-8CAB-6619D3E5A42C}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C4332FCF-8E4C-4F49-8EFC-804C6E3A59B2}" name="Parameter category"/>
-    <tableColumn id="2" xr3:uid="{A55A75DB-88A1-1245-BF1A-68A78F78C819}" name="Parameter name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A55A75DB-88A1-1245-BF1A-68A78F78C819}" name="Parameter name" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{5A41921B-736C-6B44-9ECB-CB018A2EAD98}" name="Variable name"/>
-    <tableColumn id="4" xr3:uid="{AC20CA22-09A0-874C-8AAB-D90343AC4C41}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AC20CA22-09A0-874C-8AAB-D90343AC4C41}" name="Description"/>
     <tableColumn id="5" xr3:uid="{BC697E1E-B29C-C449-B77E-41BE3FCCCC5F}" name="Tuning range or preset value" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{5E98ED95-4E7B-3B45-A47B-AF1FEE1A9A80}" name="Scenario 1"/>
     <tableColumn id="7" xr3:uid="{D0B2B3FA-F3D8-C746-B783-084B2C487DBB}" name="Scenario 2"/>
@@ -1480,61 +1389,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A1D66-ACB3-5F43-8146-4761D363CB09}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView zoomScale="56" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="89.5" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="6" customWidth="1"/>
     <col min="6" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>278</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>279</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -1542,16 +1451,16 @@
       <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1568,7 +1477,7 @@
       <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1576,16 +1485,16 @@
       <c r="A4" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1602,7 +1511,7 @@
       <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1610,16 +1519,16 @@
       <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1636,7 +1545,7 @@
       <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1644,16 +1553,16 @@
       <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1670,7 +1579,7 @@
       <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1678,16 +1587,16 @@
       <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1704,7 +1613,7 @@
       <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1712,16 +1621,16 @@
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1738,7 +1647,7 @@
       <c r="D13" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1746,16 +1655,16 @@
       <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1772,7 +1681,7 @@
       <c r="D15" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1780,16 +1689,16 @@
       <c r="A16" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1797,16 +1706,16 @@
       <c r="A17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1814,16 +1723,16 @@
       <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1831,16 +1740,16 @@
       <c r="A19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>173</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1848,16 +1757,16 @@
       <c r="A20" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1874,7 +1783,7 @@
       <c r="D21" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1885,13 +1794,13 @@
       <c r="B22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>181</v>
       </c>
       <c r="D22" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1899,16 +1808,16 @@
       <c r="A23" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1925,7 +1834,7 @@
       <c r="D24" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1933,16 +1842,16 @@
       <c r="A25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1950,16 +1859,16 @@
       <c r="A26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1976,7 +1885,7 @@
       <c r="D27" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1984,16 +1893,16 @@
       <c r="A28" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2010,7 +1919,7 @@
       <c r="D29" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2027,7 +1936,7 @@
       <c r="D30" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>0.3</v>
       </c>
     </row>
@@ -2044,7 +1953,7 @@
       <c r="D31" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="6">
         <v>0.5</v>
       </c>
     </row>
@@ -2061,11 +1970,11 @@
       <c r="D32" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>198</v>
       </c>
@@ -2078,11 +1987,11 @@
       <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -2095,11 +2004,11 @@
       <c r="D34" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>198</v>
       </c>
@@ -2112,11 +2021,11 @@
       <c r="D35" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -2129,11 +2038,11 @@
       <c r="D36" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -2146,11 +2055,11 @@
       <c r="D37" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -2163,11 +2072,11 @@
       <c r="D38" t="s">
         <v>229</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>198</v>
       </c>
@@ -2180,11 +2089,11 @@
       <c r="D39" t="s">
         <v>232</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -2197,14 +2106,11 @@
       <c r="D40" t="s">
         <v>235</v>
       </c>
-      <c r="E40" s="4">
-        <v>10</v>
-      </c>
-      <c r="L40">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E40" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -2217,11 +2123,11 @@
       <c r="D41" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>198</v>
       </c>
@@ -2234,11 +2140,11 @@
       <c r="D42" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -2251,11 +2157,11 @@
       <c r="D43" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -2268,11 +2174,11 @@
       <c r="D44" t="s">
         <v>251</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="6">
         <v>20220208</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -2285,315 +2191,318 @@
       <c r="D45" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="4" t="b">
+        <v>307</v>
+      </c>
+      <c r="E46" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>256</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E49" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>256</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>256</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" s="4">
+        <v>257</v>
+      </c>
+      <c r="D51" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>256</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
-      </c>
-      <c r="E52" s="4">
+        <v>258</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>256</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>282</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E56" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>284</v>
-      </c>
-      <c r="B54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-      <c r="C55" t="s">
-        <v>295</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3"/>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" t="s">
-        <v>296</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="K56">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C57" t="s">
-        <v>296</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="K57">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="6">
+        <v>2.546855E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C58" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="K58">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C59" t="s">
-        <v>295</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="K59">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C60" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="K60">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2.546855E-2</v>
-      </c>
-      <c r="F61">
-        <f>Table1[[#This Row],[Tuning range or preset value]]+0.01</f>
-        <v>3.5468550000000001E-2</v>
-      </c>
-      <c r="K61">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2602,15 +2511,15 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2619,15 +2528,15 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2636,15 +2545,15 @@
         <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2652,16 +2561,16 @@
       <c r="A68" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="3" t="s">
+      <c r="B68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2669,16 +2578,16 @@
       <c r="A69" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>32</v>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2686,16 +2595,16 @@
       <c r="A70" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2703,16 +2612,16 @@
       <c r="A71" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2720,16 +2629,16 @@
       <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>41</v>
+      <c r="B72" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2738,15 +2647,15 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2755,15 +2664,15 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2772,15 +2681,15 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
-      </c>
-      <c r="E75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2789,15 +2698,15 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2806,15 +2715,15 @@
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2823,15 +2732,15 @@
         <v>7</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
-      </c>
-      <c r="E78" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2840,15 +2749,15 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2857,15 +2766,15 @@
         <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
-      </c>
-      <c r="E80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2874,15 +2783,15 @@
         <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2891,15 +2800,15 @@
         <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2907,16 +2816,16 @@
       <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="B83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2924,16 +2833,16 @@
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>72</v>
+      <c r="B84" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2941,16 +2850,16 @@
       <c r="A85" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2958,16 +2867,16 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="B86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2975,16 +2884,16 @@
       <c r="A87" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>81</v>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2993,15 +2902,15 @@
         <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3009,16 +2918,16 @@
       <c r="A89" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="B89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3026,16 +2935,16 @@
       <c r="A90" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="B90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3043,16 +2952,16 @@
       <c r="A91" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>91</v>
+      <c r="B91" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3060,16 +2969,16 @@
       <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3077,16 +2986,16 @@
       <c r="A93" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>97</v>
+      <c r="B93" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3094,16 +3003,16 @@
       <c r="A94" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="B94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3111,84 +3020,16 @@
       <c r="A95" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>102</v>
+      <c r="B95" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" t="s">
-        <v>109</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" t="s">
         <v>115</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D95" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E95" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3205,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD35743A-9BCD-4440-A2B9-C15CACDD5C34}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3215,429 +3056,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>305</v>
+      <c r="A1" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="N1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="44" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>306</v>
+      <c r="A2" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="44" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="110" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="132" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="88" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="110" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="22" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" ht="132" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="88" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="110" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" ht="132" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="66" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="A18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
